--- a/public/storage/ingresarexcel.xlsx
+++ b/public/storage/ingresarexcel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fores\Desktop\semarnat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\lsapp3\resources\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91F5085-8FA6-4EFF-97D0-7EF4F4F66D3C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBBB629-2B3A-4F8C-886F-1AA42E0D9149}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="786" firstSheet="3" activeTab="12" xr2:uid="{36B60C1C-FBE5-4F8D-81CA-193DEC5AF82E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="786" firstSheet="3" activeTab="6" xr2:uid="{36B60C1C-FBE5-4F8D-81CA-193DEC5AF82E}"/>
   </bookViews>
   <sheets>
     <sheet name="MEDICION" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="162">
   <si>
     <t>fecha</t>
   </si>
@@ -171,12 +171,6 @@
     <t>bosque</t>
   </si>
   <si>
-    <t>radio_0_30m</t>
-  </si>
-  <si>
-    <t>radio_30m_o_mas</t>
-  </si>
-  <si>
     <t>10:45</t>
   </si>
   <si>
@@ -237,24 +231,6 @@
     <t>especie_arbusto</t>
   </si>
   <si>
-    <t>fo_arbol</t>
-  </si>
-  <si>
-    <t>fo_arbusto</t>
-  </si>
-  <si>
-    <t>tr_arbol</t>
-  </si>
-  <si>
-    <t>tr_arbusto</t>
-  </si>
-  <si>
-    <t>ro</t>
-  </si>
-  <si>
-    <t>su</t>
-  </si>
-  <si>
     <t>notas</t>
   </si>
   <si>
@@ -267,15 +243,6 @@
     <t>3</t>
   </si>
   <si>
-    <t>Phrynosoma orbiculare2</t>
-  </si>
-  <si>
-    <t>Sceloporus scalaris2</t>
-  </si>
-  <si>
-    <t>Portificus grandotus2</t>
-  </si>
-  <si>
     <t>marca</t>
   </si>
   <si>
@@ -532,6 +499,36 @@
   </si>
   <si>
     <t>mami14.jpg</t>
+  </si>
+  <si>
+    <t>descansando</t>
+  </si>
+  <si>
+    <t>radio</t>
+  </si>
+  <si>
+    <t>micrositio</t>
+  </si>
+  <si>
+    <t>follaje arbol</t>
+  </si>
+  <si>
+    <t>pinus pinea</t>
+  </si>
+  <si>
+    <t>suelo</t>
+  </si>
+  <si>
+    <t>especie_cactus</t>
+  </si>
+  <si>
+    <t>Phrynosoma orbiculare</t>
+  </si>
+  <si>
+    <t>Sceloporus scalaris</t>
+  </si>
+  <si>
+    <t>Portificus grandotus</t>
   </si>
 </sst>
 </file>
@@ -1537,36 +1534,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1579,7 +1576,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1600,401 +1597,425 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="D2" s="46" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E2" s="46" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F2" s="47" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="G2" s="47" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="H2" s="47" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="I2" s="47" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="J2" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="K2" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="L2" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="M2" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="N2" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="46" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F3" s="47" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="G3" s="47" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="H3" s="47" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="I3" s="47" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="J3" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="K3" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="L3" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="M3" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="N3" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="46" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="G4" s="47" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="H4" s="47" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="I4" s="47" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="J4" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="K4" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="L4" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="M4" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="N4" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="46" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F5" s="47" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="G5" s="47" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="H5" s="47" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="I5" s="47" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="J5" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="K5" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="L5" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="M5" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="N5" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="46" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="G6" s="47" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="H6" s="47" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="I6" s="47" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="J6" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="K6" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="L6" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="M6" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="N6" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="46" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F7" s="47" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="G7" s="47" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="H7" s="47" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="I7" s="47" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="J7" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="K7" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="L7" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="M7" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="N7" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="46" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E8" s="46" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F8" s="47" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="G8" s="47" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="H8" s="47" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="I8" s="47" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="J8" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="K8" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="L8" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="M8" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="N8" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="46" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D9" s="46" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E9" s="46" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F9" s="47" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="G9" s="47" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="H9" s="47" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="I9" s="47" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="J9" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="K9" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="L9" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="M9" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="N9" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -2160,30 +2181,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2195,8 +2216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7353E5-BAE5-4A9C-9B16-EF1561C5AD4B}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2213,51 +2234,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="47" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="D2" s="47" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="E2" s="47" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="F2" s="47" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -2453,75 +2477,75 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>41</v>
@@ -2557,78 +2581,78 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="F2" s="48" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -2662,24 +2686,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B2" s="1">
         <v>22.034099999999999</v>
@@ -2703,8 +2727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0319FAA-1597-456F-BB38-D3F75F993BB0}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2722,16 +2746,16 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>2</v>
@@ -2749,27 +2773,27 @@
         <v>6</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>7</v>
@@ -2784,9 +2808,11 @@
         <v>10</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="K2" s="1"/>
+        <v>119</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="19"/>
@@ -3125,31 +3151,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="F1" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="G1" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>57</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -3160,10 +3186,10 @@
         <v>22.034099999999999</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>34</v>
@@ -3189,10 +3215,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E68EAA1-00AC-4C2B-AC96-2ADF2DD2B9C2}">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3200,203 +3226,156 @@
     <col min="1" max="1" width="22.88671875" style="10" customWidth="1"/>
     <col min="2" max="3" width="24" style="10" customWidth="1"/>
     <col min="4" max="4" width="18.21875" style="10" customWidth="1"/>
-    <col min="5" max="6" width="15.77734375" style="10" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" style="10" customWidth="1"/>
+    <col min="6" max="7" width="16.88671875" style="10" customWidth="1"/>
     <col min="8" max="8" width="20.109375" style="10" customWidth="1"/>
-    <col min="9" max="10" width="14.109375" style="10" customWidth="1"/>
-    <col min="11" max="11" width="19.44140625" style="10" customWidth="1"/>
-    <col min="12" max="15" width="8.88671875" style="10"/>
-    <col min="16" max="16" width="16.6640625" style="10" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="10"/>
+    <col min="9" max="9" width="14.109375" style="10" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="10"/>
+    <col min="11" max="11" width="16.6640625" style="10" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2" s="12">
         <v>1</v>
       </c>
-      <c r="E2" s="12">
-        <v>1</v>
+      <c r="E2" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="12">
-        <v>1</v>
-      </c>
-      <c r="J2" s="12">
-        <v>1</v>
-      </c>
-      <c r="K2" s="12">
-        <v>1</v>
-      </c>
-      <c r="L2" s="12">
-        <v>1</v>
-      </c>
-      <c r="M2" s="12">
-        <v>1</v>
-      </c>
-      <c r="N2" s="12">
-        <v>1</v>
-      </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>39</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="11"/>
+        <v>160</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="D3" s="12">
         <v>4</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>46</v>
+        <v>156</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="12">
-        <v>2</v>
-      </c>
-      <c r="J3" s="12">
-        <v>2</v>
-      </c>
-      <c r="K3" s="12">
-        <v>2</v>
-      </c>
-      <c r="L3" s="12">
-        <v>2</v>
-      </c>
-      <c r="M3" s="12">
-        <v>2</v>
-      </c>
-      <c r="N3" s="12">
-        <v>2</v>
-      </c>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="11"/>
+        <v>161</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="D4" s="12">
         <v>1</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>73</v>
+        <v>152</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="12">
-        <v>2</v>
-      </c>
-      <c r="J4" s="12">
-        <v>2</v>
-      </c>
-      <c r="K4" s="12">
-        <v>2</v>
-      </c>
-      <c r="L4" s="12">
-        <v>2</v>
-      </c>
-      <c r="M4" s="12">
-        <v>2</v>
-      </c>
-      <c r="N4" s="12">
-        <v>2</v>
-      </c>
-      <c r="O4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="J4" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="12"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K4" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -3406,10 +3385,8 @@
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -3419,10 +3396,8 @@
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -3432,10 +3407,8 @@
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -3445,10 +3418,8 @@
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -3458,10 +3429,8 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -3471,10 +3440,8 @@
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -3484,10 +3451,8 @@
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -3497,10 +3462,8 @@
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -3510,10 +3473,8 @@
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -3523,10 +3484,8 @@
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -3536,10 +3495,8 @@
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -3549,10 +3506,8 @@
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -3562,10 +3517,8 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -3575,10 +3528,8 @@
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -3588,10 +3539,8 @@
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -3601,10 +3550,8 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -3614,10 +3561,8 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -3627,10 +3572,8 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -3640,10 +3583,8 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -3653,10 +3594,8 @@
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -3666,8 +3605,6 @@
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3692,36 +3629,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3733,8 +3670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4409B8-DE4D-467D-A669-7235A77DA2A9}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3755,401 +3692,425 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="47" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2" s="47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E2" s="47" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="F2" s="47" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="G2" s="47" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="H2" s="47" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="I2" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="J2" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="K2" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="L2" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="M2" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>126</v>
+        <v>115</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E3" s="47" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="F3" s="47" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="G3" s="47" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="H3" s="47" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="I3" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="J3" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="K3" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="L3" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="M3" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>126</v>
+        <v>115</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="G4" s="47" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="H4" s="47" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="I4" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="J4" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="K4" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="L4" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="M4" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>126</v>
+        <v>115</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="F5" s="47" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="G5" s="47" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="H5" s="47" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="I5" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="J5" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="K5" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="L5" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="M5" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>126</v>
+        <v>115</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D6" s="47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E6" s="47" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="G6" s="47" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="H6" s="47" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="I6" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="J6" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="K6" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="L6" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="M6" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>126</v>
+        <v>115</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="F7" s="47" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="G7" s="47" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="H7" s="47" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="I7" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="J7" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="K7" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="L7" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="M7" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>126</v>
+        <v>115</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="G8" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="H8" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="B8" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="C8" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="F8" s="47" t="s">
-        <v>143</v>
-      </c>
-      <c r="G8" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="H8" s="47" t="s">
-        <v>150</v>
-      </c>
       <c r="I8" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="J8" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="K8" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="L8" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="M8" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>126</v>
+        <v>115</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="47" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B9" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="G9" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="H9" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="F9" s="47" t="s">
-        <v>143</v>
-      </c>
-      <c r="G9" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="H9" s="47" t="s">
-        <v>151</v>
-      </c>
       <c r="I9" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="J9" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="K9" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="L9" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="M9" s="47" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>126</v>
+        <v>115</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">

--- a/public/storage/ingresarexcel.xlsx
+++ b/public/storage/ingresarexcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\lsapp3\resources\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBBB629-2B3A-4F8C-886F-1AA42E0D9149}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91183621-6A41-4E0D-9440-B03B5653FA66}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="786" firstSheet="3" activeTab="6" xr2:uid="{36B60C1C-FBE5-4F8D-81CA-193DEC5AF82E}"/>
+    <workbookView xWindow="4284" yWindow="1848" windowWidth="17280" windowHeight="9072" tabRatio="786" firstSheet="3" activeTab="6" xr2:uid="{36B60C1C-FBE5-4F8D-81CA-193DEC5AF82E}"/>
   </bookViews>
   <sheets>
     <sheet name="MEDICION" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="166">
   <si>
     <t>fecha</t>
   </si>
@@ -529,6 +529,18 @@
   </si>
   <si>
     <t>Portificus grandotus</t>
+  </si>
+  <si>
+    <t>cantidad</t>
+  </si>
+  <si>
+    <t>0-30 m de diámetro</t>
+  </si>
+  <si>
+    <t>&gt;30 m de diámetro</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -858,7 +870,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1017,6 +1029,9 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3215,27 +3230,27 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E68EAA1-00AC-4C2B-AC96-2ADF2DD2B9C2}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.88671875" style="10" customWidth="1"/>
-    <col min="2" max="3" width="24" style="10" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" style="10" customWidth="1"/>
-    <col min="6" max="7" width="16.88671875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" style="10" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" style="10" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="10"/>
-    <col min="11" max="11" width="16.6640625" style="10" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="10"/>
+    <col min="2" max="4" width="24" style="10" customWidth="1"/>
+    <col min="5" max="5" width="18.21875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" style="10" customWidth="1"/>
+    <col min="7" max="8" width="16.88671875" style="10" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" style="10" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" style="10" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="10"/>
+    <col min="12" max="12" width="16.6640625" style="10" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>58</v>
       </c>
@@ -3246,31 +3261,34 @@
         <v>46</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>38</v>
       </c>
@@ -3280,14 +3298,14 @@
       <c r="C2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="12">
-        <v>1</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="D2" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>45</v>
@@ -3304,8 +3322,11 @@
       <c r="K2" s="12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>39</v>
       </c>
@@ -3315,32 +3336,35 @@
       <c r="C3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="12">
-        <v>4</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="D3" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="G3" s="12" t="s">
         <v>156</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>45</v>
       </c>
       <c r="I3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="12" t="s">
         <v>155</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>40</v>
       </c>
@@ -3350,14 +3374,14 @@
       <c r="C4" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="12">
-        <v>1</v>
-      </c>
-      <c r="E4" s="12" t="s">
+      <c r="D4" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>152</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>45</v>
@@ -3366,245 +3390,269 @@
         <v>45</v>
       </c>
       <c r="I4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="K4" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="L4" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
+      <c r="D5" s="13"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
+      <c r="D6" s="13"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
+      <c r="D7" s="13"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
+      <c r="D9" s="13"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J10" s="14"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J13" s="14"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J14" s="14"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J15" s="14"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
-      <c r="D16" s="14"/>
+      <c r="D16" s="13"/>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
+      <c r="D17" s="13"/>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="14"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
-      <c r="D18" s="14"/>
+      <c r="D18" s="13"/>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18" s="14"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
-      <c r="D19" s="14"/>
+      <c r="D19" s="13"/>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19" s="14"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
+      <c r="D20" s="13"/>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20" s="14"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
+      <c r="D21" s="13"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="14"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
-      <c r="D22" s="14"/>
+      <c r="D22" s="13"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="14"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
+      <c r="D23" s="13"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23" s="14"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
+      <c r="D24" s="13"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="14"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
-      <c r="D25" s="14"/>
+      <c r="D25" s="13"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/storage/ingresarexcel.xlsx
+++ b/public/storage/ingresarexcel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\lsapp3\resources\assets\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\lsapp3\public\storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91183621-6A41-4E0D-9440-B03B5653FA66}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B965D21D-81EF-4F7A-9F50-C8AB8B96B6F5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4284" yWindow="1848" windowWidth="17280" windowHeight="9072" tabRatio="786" firstSheet="3" activeTab="6" xr2:uid="{36B60C1C-FBE5-4F8D-81CA-193DEC5AF82E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="786" firstSheet="3" activeTab="12" xr2:uid="{36B60C1C-FBE5-4F8D-81CA-193DEC5AF82E}"/>
   </bookViews>
   <sheets>
     <sheet name="MEDICION" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="HIER_LOC_4" sheetId="14" r:id="rId12"/>
     <sheet name="HIER_OBS_4" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="166">
   <si>
     <t>fecha</t>
   </si>
@@ -282,9 +282,6 @@
     <t xml:space="preserve">numero_de_foto	</t>
   </si>
   <si>
-    <t>numero_de_individulos_capturados</t>
-  </si>
-  <si>
     <t>numero_de_repeticion</t>
   </si>
   <si>
@@ -541,6 +538,9 @@
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>Maria</t>
   </si>
 </sst>
 </file>
@@ -560,6 +560,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
@@ -1012,6 +1013,9 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1029,9 +1033,6 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1351,7 +1352,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1374,28 +1375,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="22" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="49" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="54" t="s">
+      <c r="E1" s="51"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="49" t="s">
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
     </row>
     <row r="2" spans="1:14" s="29" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
@@ -1492,7 +1493,9 @@
       <c r="E4" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="39"/>
+      <c r="F4" s="39" t="s">
+        <v>165</v>
+      </c>
       <c r="G4" s="40">
         <v>2016</v>
       </c>
@@ -1555,7 +1558,7 @@
         <v>50</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>56</v>
@@ -1566,19 +1569,19 @@
     </row>
     <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1618,37 +1621,37 @@
         <v>59</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>62</v>
@@ -1659,13 +1662,13 @@
     </row>
     <row r="2" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="46" t="s">
-        <v>142</v>
-      </c>
       <c r="C2" s="46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D2" s="46" t="s">
         <v>47</v>
@@ -1674,31 +1677,31 @@
         <v>47</v>
       </c>
       <c r="F2" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="H2" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="H2" s="47" t="s">
-        <v>133</v>
-      </c>
       <c r="I2" s="47" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J2" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K2" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L2" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M2" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N2" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>45</v>
@@ -1706,13 +1709,13 @@
     </row>
     <row r="3" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="46" t="s">
-        <v>142</v>
-      </c>
       <c r="C3" s="46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D3" s="46" t="s">
         <v>47</v>
@@ -1721,31 +1724,31 @@
         <v>47</v>
       </c>
       <c r="F3" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="H3" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="H3" s="47" t="s">
-        <v>133</v>
-      </c>
       <c r="I3" s="47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J3" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K3" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L3" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M3" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N3" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>45</v>
@@ -1753,10 +1756,10 @@
     </row>
     <row r="4" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="46" t="s">
         <v>141</v>
-      </c>
-      <c r="B4" s="46" t="s">
-        <v>142</v>
       </c>
       <c r="C4" s="46" t="s">
         <v>64</v>
@@ -1768,31 +1771,31 @@
         <v>47</v>
       </c>
       <c r="F4" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="G4" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="H4" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="H4" s="47" t="s">
-        <v>133</v>
-      </c>
       <c r="I4" s="47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J4" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K4" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L4" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M4" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N4" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O4" s="6" t="s">
         <v>45</v>
@@ -1800,10 +1803,10 @@
     </row>
     <row r="5" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="46" t="s">
         <v>141</v>
-      </c>
-      <c r="B5" s="46" t="s">
-        <v>142</v>
       </c>
       <c r="C5" s="46" t="s">
         <v>64</v>
@@ -1815,31 +1818,31 @@
         <v>47</v>
       </c>
       <c r="F5" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="G5" s="47" t="s">
+      <c r="H5" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="H5" s="47" t="s">
-        <v>133</v>
-      </c>
       <c r="I5" s="47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J5" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K5" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L5" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M5" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N5" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O5" s="6" t="s">
         <v>45</v>
@@ -1847,10 +1850,10 @@
     </row>
     <row r="6" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="46" t="s">
         <v>141</v>
-      </c>
-      <c r="B6" s="46" t="s">
-        <v>142</v>
       </c>
       <c r="C6" s="46" t="s">
         <v>65</v>
@@ -1862,31 +1865,31 @@
         <v>47</v>
       </c>
       <c r="F6" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="G6" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="H6" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="H6" s="47" t="s">
-        <v>133</v>
-      </c>
       <c r="I6" s="47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J6" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K6" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L6" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M6" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N6" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O6" s="6" t="s">
         <v>45</v>
@@ -1894,10 +1897,10 @@
     </row>
     <row r="7" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="46" t="s">
         <v>141</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>142</v>
       </c>
       <c r="C7" s="46" t="s">
         <v>65</v>
@@ -1909,31 +1912,31 @@
         <v>47</v>
       </c>
       <c r="F7" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="G7" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="H7" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="H7" s="47" t="s">
-        <v>133</v>
-      </c>
       <c r="I7" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J7" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K7" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L7" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M7" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N7" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>45</v>
@@ -1941,13 +1944,13 @@
     </row>
     <row r="8" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="B8" s="46" t="s">
-        <v>142</v>
-      </c>
       <c r="C8" s="46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D8" s="46" t="s">
         <v>47</v>
@@ -1956,31 +1959,31 @@
         <v>47</v>
       </c>
       <c r="F8" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="H8" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="H8" s="47" t="s">
-        <v>133</v>
-      </c>
       <c r="I8" s="47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J8" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K8" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L8" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M8" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N8" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O8" s="6" t="s">
         <v>45</v>
@@ -1988,13 +1991,13 @@
     </row>
     <row r="9" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="B9" s="46" t="s">
-        <v>142</v>
-      </c>
       <c r="C9" s="46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D9" s="46" t="s">
         <v>47</v>
@@ -2003,31 +2006,31 @@
         <v>47</v>
       </c>
       <c r="F9" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="G9" s="47" t="s">
+      <c r="H9" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="H9" s="47" t="s">
-        <v>133</v>
-      </c>
       <c r="I9" s="47" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J9" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K9" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L9" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M9" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N9" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O9" s="6" t="s">
         <v>45</v>
@@ -2196,30 +2199,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>82</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C2" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2231,8 +2234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7353E5-BAE5-4A9C-9B16-EF1561C5AD4B}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2258,10 +2261,10 @@
         <v>46</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>57</v>
@@ -2275,25 +2278,25 @@
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="C2" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="D2" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="E2" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="F2" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="F2" s="47" t="s">
-        <v>150</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>45</v>
@@ -2530,37 +2533,37 @@
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>41</v>
@@ -2577,7 +2580,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2619,11 +2622,11 @@
       <c r="H1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>62</v>
@@ -2634,28 +2637,28 @@
     </row>
     <row r="2" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>109</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2" s="48" t="s">
+      <c r="G2" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>64</v>
@@ -2664,10 +2667,10 @@
         <v>65</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -2701,16 +2704,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>82</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>83</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>53</v>
@@ -2718,7 +2721,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B2" s="1">
         <v>22.034099999999999</v>
@@ -2770,7 +2773,7 @@
         <v>46</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>2</v>
@@ -2796,10 +2799,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>47</v>
@@ -2808,7 +2811,7 @@
         <v>47</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>7</v>
@@ -2823,7 +2826,7 @@
         <v>10</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>45</v>
@@ -3232,7 +3235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E68EAA1-00AC-4C2B-AC96-2ADF2DD2B9C2}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -3261,10 +3264,10 @@
         <v>46</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>5</v>
@@ -3276,10 +3279,10 @@
         <v>61</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>62</v>
@@ -3293,16 +3296,16 @@
         <v>38</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="E2" s="55" t="s">
-        <v>163</v>
+        <v>129</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>162</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>44</v>
@@ -3331,7 +3334,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>45</v>
@@ -3339,14 +3342,14 @@
       <c r="D3" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="55" t="s">
-        <v>164</v>
+      <c r="E3" s="49" t="s">
+        <v>163</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>45</v>
@@ -3355,7 +3358,7 @@
         <v>45</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>45</v>
@@ -3369,19 +3372,19 @@
         <v>40</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>45</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="E4" s="55" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>162</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>45</v>
@@ -3393,7 +3396,7 @@
         <v>45</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>37</v>
@@ -3683,7 +3686,7 @@
         <v>50</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>56</v>
@@ -3694,19 +3697,19 @@
     </row>
     <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3719,7 +3722,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3752,31 +3755,31 @@
         <v>48</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>62</v>
@@ -3787,10 +3790,10 @@
     </row>
     <row r="2" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="47" t="s">
         <v>128</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>129</v>
       </c>
       <c r="C2" s="47" t="s">
         <v>47</v>
@@ -3799,34 +3802,34 @@
         <v>47</v>
       </c>
       <c r="E2" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="G2" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="G2" s="47" t="s">
-        <v>133</v>
-      </c>
       <c r="H2" s="47" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I2" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J2" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K2" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L2" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M2" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>45</v>
@@ -3834,10 +3837,10 @@
     </row>
     <row r="3" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="47" t="s">
         <v>128</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>129</v>
       </c>
       <c r="C3" s="47" t="s">
         <v>47</v>
@@ -3846,34 +3849,34 @@
         <v>47</v>
       </c>
       <c r="E3" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="G3" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="G3" s="47" t="s">
-        <v>133</v>
-      </c>
       <c r="H3" s="47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I3" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J3" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K3" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L3" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M3" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>45</v>
@@ -3881,10 +3884,10 @@
     </row>
     <row r="4" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="47" t="s">
         <v>128</v>
-      </c>
-      <c r="B4" s="47" t="s">
-        <v>129</v>
       </c>
       <c r="C4" s="47" t="s">
         <v>47</v>
@@ -3893,34 +3896,34 @@
         <v>47</v>
       </c>
       <c r="E4" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="G4" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="G4" s="47" t="s">
-        <v>133</v>
-      </c>
       <c r="H4" s="47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I4" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J4" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K4" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L4" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M4" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O4" s="6" t="s">
         <v>45</v>
@@ -3928,10 +3931,10 @@
     </row>
     <row r="5" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="47" t="s">
         <v>128</v>
-      </c>
-      <c r="B5" s="47" t="s">
-        <v>129</v>
       </c>
       <c r="C5" s="47" t="s">
         <v>47</v>
@@ -3940,34 +3943,34 @@
         <v>47</v>
       </c>
       <c r="E5" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="G5" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="G5" s="47" t="s">
-        <v>133</v>
-      </c>
       <c r="H5" s="47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I5" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J5" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K5" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L5" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M5" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O5" s="6" t="s">
         <v>45</v>
@@ -3975,10 +3978,10 @@
     </row>
     <row r="6" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="47" t="s">
         <v>128</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>129</v>
       </c>
       <c r="C6" s="47" t="s">
         <v>47</v>
@@ -3987,34 +3990,34 @@
         <v>47</v>
       </c>
       <c r="E6" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="G6" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="G6" s="47" t="s">
-        <v>133</v>
-      </c>
       <c r="H6" s="47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I6" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J6" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K6" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L6" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M6" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O6" s="6" t="s">
         <v>45</v>
@@ -4022,10 +4025,10 @@
     </row>
     <row r="7" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="47" t="s">
         <v>128</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>129</v>
       </c>
       <c r="C7" s="47" t="s">
         <v>47</v>
@@ -4034,34 +4037,34 @@
         <v>47</v>
       </c>
       <c r="E7" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="F7" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="G7" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="G7" s="47" t="s">
-        <v>133</v>
-      </c>
       <c r="H7" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I7" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J7" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K7" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L7" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M7" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>45</v>
@@ -4069,10 +4072,10 @@
     </row>
     <row r="8" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="47" t="s">
         <v>128</v>
-      </c>
-      <c r="B8" s="47" t="s">
-        <v>129</v>
       </c>
       <c r="C8" s="47" t="s">
         <v>47</v>
@@ -4081,34 +4084,34 @@
         <v>47</v>
       </c>
       <c r="E8" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="G8" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="G8" s="47" t="s">
-        <v>133</v>
-      </c>
       <c r="H8" s="47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I8" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J8" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K8" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L8" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M8" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O8" s="6" t="s">
         <v>45</v>
@@ -4116,10 +4119,10 @@
     </row>
     <row r="9" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="47" t="s">
         <v>128</v>
-      </c>
-      <c r="B9" s="47" t="s">
-        <v>129</v>
       </c>
       <c r="C9" s="47" t="s">
         <v>47</v>
@@ -4128,34 +4131,34 @@
         <v>47</v>
       </c>
       <c r="E9" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="F9" s="47" t="s">
+      <c r="G9" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="G9" s="47" t="s">
-        <v>133</v>
-      </c>
       <c r="H9" s="47" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I9" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J9" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K9" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L9" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M9" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O9" s="6" t="s">
         <v>45</v>
